--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.90318633333334</v>
+        <v>13.11017566666667</v>
       </c>
       <c r="H2">
-        <v>182.709559</v>
+        <v>39.330527</v>
       </c>
       <c r="I2">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704502</v>
       </c>
       <c r="J2">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704501</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.481206</v>
+        <v>5.916202333333334</v>
       </c>
       <c r="N2">
-        <v>262.443618</v>
+        <v>17.748607</v>
       </c>
       <c r="O2">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="P2">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="Q2">
-        <v>5327.884189682718</v>
+        <v>77.56245186954324</v>
       </c>
       <c r="R2">
-        <v>47950.95770714447</v>
+        <v>698.062066825889</v>
       </c>
       <c r="S2">
-        <v>0.4266788982711357</v>
+        <v>0.05825730327805353</v>
       </c>
       <c r="T2">
-        <v>0.4266788982711358</v>
+        <v>0.05825730327805352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.90318633333334</v>
+        <v>13.11017566666667</v>
       </c>
       <c r="H3">
-        <v>182.709559</v>
+        <v>39.330527</v>
       </c>
       <c r="I3">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704502</v>
       </c>
       <c r="J3">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704501</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.096729</v>
       </c>
       <c r="O3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="P3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="Q3">
-        <v>631.2966268813901</v>
+        <v>135.8945266162426</v>
       </c>
       <c r="R3">
-        <v>5681.669641932512</v>
+        <v>1223.050739546183</v>
       </c>
       <c r="S3">
-        <v>0.05055683262816501</v>
+        <v>0.1020706341803862</v>
       </c>
       <c r="T3">
-        <v>0.05055683262816502</v>
+        <v>0.1020706341803862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.90318633333334</v>
+        <v>13.11017566666667</v>
       </c>
       <c r="H4">
-        <v>182.709559</v>
+        <v>39.330527</v>
       </c>
       <c r="I4">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704502</v>
       </c>
       <c r="J4">
-        <v>0.4799022665420342</v>
+        <v>0.1657114824704501</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.546715</v>
+        <v>0.5467150000000001</v>
       </c>
       <c r="N4">
         <v>1.640145</v>
       </c>
       <c r="O4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="P4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="Q4">
-        <v>33.29668551622833</v>
+        <v>7.167529689601668</v>
       </c>
       <c r="R4">
-        <v>299.670169646055</v>
+        <v>64.50776720641501</v>
       </c>
       <c r="S4">
-        <v>0.002666535642733411</v>
+        <v>0.005383545012010414</v>
       </c>
       <c r="T4">
-        <v>0.002666535642733411</v>
+        <v>0.005383545012010413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.425682</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H5">
         <v>154.277046</v>
       </c>
       <c r="I5">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583834</v>
       </c>
       <c r="J5">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583833</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>87.481206</v>
+        <v>5.916202333333334</v>
       </c>
       <c r="N5">
-        <v>262.443618</v>
+        <v>17.748607</v>
       </c>
       <c r="O5">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="P5">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="Q5">
-        <v>4498.780680732492</v>
+        <v>304.244739841658</v>
       </c>
       <c r="R5">
-        <v>40489.02612659243</v>
+        <v>2738.202658574922</v>
       </c>
       <c r="S5">
-        <v>0.3602808762501874</v>
+        <v>0.228518795531629</v>
       </c>
       <c r="T5">
-        <v>0.3602808762501875</v>
+        <v>0.228518795531629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.425682</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H6">
         <v>154.277046</v>
       </c>
       <c r="I6">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583834</v>
       </c>
       <c r="J6">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583833</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>31.096729</v>
       </c>
       <c r="O6">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="P6">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="Q6">
-        <v>533.056832264726</v>
+        <v>533.0568322647259</v>
       </c>
       <c r="R6">
-        <v>4797.511490382534</v>
+        <v>4797.511490382533</v>
       </c>
       <c r="S6">
-        <v>0.0426893854688233</v>
+        <v>0.4003799879085428</v>
       </c>
       <c r="T6">
-        <v>0.04268938546882331</v>
+        <v>0.4003799879085428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.425682</v>
+        <v>51.42568199999999</v>
       </c>
       <c r="H7">
         <v>154.277046</v>
       </c>
       <c r="I7">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583834</v>
       </c>
       <c r="J7">
-        <v>0.405221842009972</v>
+        <v>0.6500161567583833</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.546715</v>
+        <v>0.5467150000000001</v>
       </c>
       <c r="N7">
         <v>1.640145</v>
       </c>
       <c r="O7">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="P7">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="Q7">
         <v>28.11519173463</v>
@@ -880,10 +880,10 @@
         <v>253.03672561167</v>
       </c>
       <c r="S7">
-        <v>0.002251580290961252</v>
+        <v>0.0211173733182116</v>
       </c>
       <c r="T7">
-        <v>0.002251580290961252</v>
+        <v>0.0211173733182116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.735829</v>
       </c>
       <c r="I8">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="J8">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>87.481206</v>
+        <v>5.916202333333334</v>
       </c>
       <c r="N8">
-        <v>262.443618</v>
+        <v>17.748607</v>
       </c>
       <c r="O8">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="P8">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="Q8">
-        <v>1275.354355443258</v>
+        <v>86.25000452668921</v>
       </c>
       <c r="R8">
-        <v>11478.18919898932</v>
+        <v>776.250040740203</v>
       </c>
       <c r="S8">
-        <v>0.1021356268102797</v>
+        <v>0.06478254039591405</v>
       </c>
       <c r="T8">
-        <v>0.1021356268102797</v>
+        <v>0.06478254039591404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.735829</v>
       </c>
       <c r="I9">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="J9">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>31.096729</v>
       </c>
       <c r="O9">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="P9">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="Q9">
         <v>151.1156913337045</v>
@@ -1004,10 +1004,10 @@
         <v>1360.041222003341</v>
       </c>
       <c r="S9">
-        <v>0.01210196663332237</v>
+        <v>0.1135032795882681</v>
       </c>
       <c r="T9">
-        <v>0.01210196663332237</v>
+        <v>0.1135032795882681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.735829</v>
       </c>
       <c r="I10">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="J10">
-        <v>0.1148758914479938</v>
+        <v>0.1842723607711665</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.546715</v>
+        <v>0.5467150000000001</v>
       </c>
       <c r="N10">
         <v>1.640145</v>
       </c>
       <c r="O10">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="P10">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="Q10">
-        <v>7.970344583911665</v>
+        <v>7.970344583911666</v>
       </c>
       <c r="R10">
-        <v>71.73310125520499</v>
+        <v>71.733101255205</v>
       </c>
       <c r="S10">
-        <v>0.0006382980043917327</v>
+        <v>0.00598654078698438</v>
       </c>
       <c r="T10">
-        <v>0.0006382980043917327</v>
+        <v>0.005986540786984378</v>
       </c>
     </row>
   </sheetData>
